--- a/testdata/datainExcel.xlsx
+++ b/testdata/datainExcel.xlsx
@@ -1,20 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Selenium-Python\PythonSeleniumProject\SalesforceProjects\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7524EE1-7304-426C-97C8-B33C40B9AB05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B221C8AE-AB33-44AB-A17C-519ACAC7821F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7200" yWindow="4245" windowWidth="21600" windowHeight="11235" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,17 +25,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>ContactName</t>
   </si>
   <si>
-    <t>AccountName</t>
-  </si>
-  <si>
-    <t>New Test 1001</t>
-  </si>
-  <si>
     <t>New Test Contact</t>
   </si>
   <si>
@@ -49,34 +42,10 @@
     <t>Subject</t>
   </si>
   <si>
-    <t>New Case 001</t>
-  </si>
-  <si>
     <t>Age</t>
   </si>
   <si>
-    <t>New Test 1002</t>
-  </si>
-  <si>
     <t>25/10/2026</t>
-  </si>
-  <si>
-    <t>New Case 002</t>
-  </si>
-  <si>
-    <t>New Test 1003</t>
-  </si>
-  <si>
-    <t>25/10/2027</t>
-  </si>
-  <si>
-    <t>New Case 003</t>
-  </si>
-  <si>
-    <t>25/10/2028</t>
-  </si>
-  <si>
-    <t>New Case 004</t>
   </si>
   <si>
     <t>New 001</t>
@@ -415,7 +384,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD4"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -431,24 +400,24 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="D1" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>5</v>
-      </c>
       <c r="C2" s="1" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="D2" s="1">
         <v>18</v>
@@ -456,13 +425,13 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D3" s="1">
         <v>16</v>
@@ -472,108 +441,4 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE51F2EC-4030-4ABE-9A39-A7DF236F5FA9}">
-  <dimension ref="A1:E5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="A1:XFD1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="16.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="19.140625" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="16.140625" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="1">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="1">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" s="1">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5" s="1">
-        <v>16</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>